--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>first</t>
   </si>
@@ -259,6 +259,21 @@
   </si>
   <si>
     <t xml:space="preserve">Transfer and dinner English speaking assistance </t>
+  </si>
+  <si>
+    <t>Soho House. La Mercé room rental. 4 hours. From 20h to 00h. Exclusivity for the group.</t>
+  </si>
+  <si>
+    <t>Soho House. Drink package. Open Bar “House wine and Beer” (Basic package). Rate per person per hour. Minimum 2 hours. After 3 hours, no open bar, pay for each drink.</t>
+  </si>
+  <si>
+    <t>Soho House. Drink package. House Open Bar. Rate per person per hour. Including Wine, beer, soft drinks, prosecco and liquors. After 3 hours, no open bar, pay for each drink.</t>
+  </si>
+  <si>
+    <t>Soho House. Drink package. Superior House Open Bar. Rate per person per hour. Including Champagne, Wine, beer, soft drinks, and premium liquors. After 3 hours, no open bar, pay for each drink.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soho House. English speaking assistance - Rate 5 hours for the activity. </t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL </t>
@@ -5918,7 +5933,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6882,16 +6897,16 @@
       <c r="B50" t="s" s="92">
         <v>18</v>
       </c>
-      <c r="C50" t="s" s="105">
+      <c r="C50" t="s" s="102">
         <v>69</v>
       </c>
-      <c r="D50" s="106">
-        <v>0</v>
-      </c>
-      <c r="E50" s="107">
+      <c r="D50" s="103">
+        <v>0</v>
+      </c>
+      <c r="E50" s="99">
         <v>200</v>
       </c>
-      <c r="F50" s="108">
+      <c r="F50" s="100">
         <f>E50*D50</f>
         <v>0</v>
       </c>
@@ -6899,114 +6914,224 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="109"/>
-      <c r="B51" s="110"/>
-      <c r="C51" t="s" s="111">
+    <row r="51" ht="13.65" customHeight="1">
+      <c r="A51" s="75"/>
+      <c r="B51" t="s" s="92">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s" s="102">
         <v>70</v>
       </c>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="113">
-        <v>0</v>
-      </c>
-      <c r="G51" s="114"/>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="71"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="73"/>
-    </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="71"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="73"/>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="71"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="73"/>
-    </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="71"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="73"/>
-    </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="71"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="73"/>
+      <c r="D51" s="103">
+        <v>0</v>
+      </c>
+      <c r="E51" s="99">
+        <f>600/0.8</f>
+        <v>750</v>
+      </c>
+      <c r="F51" s="100">
+        <f>E51*D51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" t="s" s="91">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" ht="24.65" customHeight="1">
+      <c r="A52" s="75"/>
+      <c r="B52" t="s" s="92">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s" s="102">
+        <v>71</v>
+      </c>
+      <c r="D52" s="103">
+        <v>0</v>
+      </c>
+      <c r="E52" s="99">
+        <v>20</v>
+      </c>
+      <c r="F52" s="100">
+        <f>E52*D52</f>
+        <v>0</v>
+      </c>
+      <c r="G52" t="s" s="91">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" ht="24.65" customHeight="1">
+      <c r="A53" s="75"/>
+      <c r="B53" t="s" s="92">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s" s="102">
+        <v>72</v>
+      </c>
+      <c r="D53" s="103">
+        <v>0</v>
+      </c>
+      <c r="E53" s="99">
+        <v>32</v>
+      </c>
+      <c r="F53" s="100">
+        <f>E53*D53</f>
+        <v>0</v>
+      </c>
+      <c r="G53" t="s" s="91">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" ht="35.65" customHeight="1">
+      <c r="A54" s="75"/>
+      <c r="B54" t="s" s="92">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s" s="102">
+        <v>73</v>
+      </c>
+      <c r="D54" s="103">
+        <v>0</v>
+      </c>
+      <c r="E54" s="99">
+        <v>45</v>
+      </c>
+      <c r="F54" s="100">
+        <f>D54*E54</f>
+        <v>0</v>
+      </c>
+      <c r="G54" t="s" s="91">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" ht="14.65" customHeight="1">
+      <c r="A55" s="75"/>
+      <c r="B55" t="s" s="92">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s" s="105">
+        <v>74</v>
+      </c>
+      <c r="D55" s="106">
+        <v>0</v>
+      </c>
+      <c r="E55" s="107">
+        <v>200</v>
+      </c>
+      <c r="F55" s="108">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s" s="91">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" ht="13.5" customHeight="1">
+      <c r="A56" s="109"/>
+      <c r="B56" s="110"/>
+      <c r="C56" t="s" s="111">
+        <v>75</v>
+      </c>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="113">
+        <v>0</v>
+      </c>
+      <c r="G56" s="114"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="71"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
       <c r="G57" s="73"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="71"/>
-      <c r="B58" t="s" s="116">
-        <v>71</v>
-      </c>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="118"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="73"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="71"/>
-      <c r="B59" t="s" s="116">
-        <v>72</v>
-      </c>
-      <c r="C59" s="117"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="118"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="73"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="71"/>
-      <c r="B60" t="s" s="116">
-        <v>73</v>
-      </c>
-      <c r="C60" s="117"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="118"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="73"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="119"/>
-      <c r="B61" s="120"/>
-      <c r="C61" s="120"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="121"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="73"/>
+    </row>
+    <row r="62" ht="12.75" customHeight="1">
+      <c r="A62" s="71"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="73"/>
+    </row>
+    <row r="63" ht="12.75" customHeight="1">
+      <c r="A63" s="71"/>
+      <c r="B63" t="s" s="116">
+        <v>76</v>
+      </c>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="118"/>
+    </row>
+    <row r="64" ht="12.75" customHeight="1">
+      <c r="A64" s="71"/>
+      <c r="B64" t="s" s="116">
+        <v>77</v>
+      </c>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="118"/>
+    </row>
+    <row r="65" ht="12.75" customHeight="1">
+      <c r="A65" s="71"/>
+      <c r="B65" t="s" s="116">
+        <v>78</v>
+      </c>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="117"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="118"/>
+    </row>
+    <row r="66" ht="12.75" customHeight="1">
+      <c r="A66" s="119"/>
+      <c r="B66" s="120"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7064,7 +7189,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s" s="76">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="72"/>
@@ -7078,7 +7203,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" s="77"/>
       <c r="F4" s="72"/>
@@ -7092,7 +7217,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s" s="78">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="72"/>
@@ -7106,7 +7231,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E6" s="77"/>
       <c r="F6" s="72"/>
@@ -7120,7 +7245,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s" s="78">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E7" s="77"/>
       <c r="F7" s="72"/>
@@ -7134,7 +7259,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s" s="80">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="72"/>
@@ -7175,19 +7300,19 @@
       <c r="A12" s="71"/>
       <c r="B12" s="72"/>
       <c r="C12" t="s" s="124">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s" s="125">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s" s="125">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s" s="125">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="126">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="85">
         <v>30</v>
@@ -7200,7 +7325,7 @@
         <v>43577</v>
       </c>
       <c r="D13" t="s" s="128">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E13" s="129">
         <v>50</v>
@@ -7213,7 +7338,7 @@
         <v>7500</v>
       </c>
       <c r="H13" t="s" s="132">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="13.65" customHeight="1">
@@ -7223,7 +7348,7 @@
         <v>43577</v>
       </c>
       <c r="D14" t="s" s="93">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E14" s="94">
         <v>24</v>
@@ -7236,7 +7361,7 @@
         <v>3120</v>
       </c>
       <c r="H14" t="s" s="132">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">
@@ -7246,7 +7371,7 @@
         <v>43577</v>
       </c>
       <c r="D15" t="s" s="97">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E15" s="98">
         <f>E13*2+E14</f>
@@ -7260,7 +7385,7 @@
         <v>150.04</v>
       </c>
       <c r="H15" t="s" s="132">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -7270,7 +7395,7 @@
         <v>43578</v>
       </c>
       <c r="D16" t="s" s="101">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E16" s="94">
         <v>1</v>
@@ -7282,7 +7407,7 @@
         <v>228</v>
       </c>
       <c r="H16" t="s" s="132">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" ht="38.25" customHeight="1">
@@ -7292,7 +7417,7 @@
         <v>43578</v>
       </c>
       <c r="D17" t="s" s="102">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E17" s="103">
         <v>1</v>
@@ -7304,7 +7429,7 @@
         <v>345</v>
       </c>
       <c r="H17" t="s" s="132">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" ht="13.65" customHeight="1">
@@ -7314,7 +7439,7 @@
         <v>43578</v>
       </c>
       <c r="D18" t="s" s="101">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E18" s="94">
         <v>40</v>
@@ -7326,7 +7451,7 @@
         <v>60</v>
       </c>
       <c r="H18" t="s" s="132">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
@@ -7336,7 +7461,7 @@
         <v>43578</v>
       </c>
       <c r="D19" t="s" s="102">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E19" s="103">
         <v>34</v>
@@ -7358,7 +7483,7 @@
         <v>43578</v>
       </c>
       <c r="D20" t="s" s="101">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E20" s="94">
         <v>62</v>
@@ -7381,7 +7506,7 @@
         <v>43579</v>
       </c>
       <c r="D21" t="s" s="102">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E21" s="103">
         <v>102</v>
@@ -7403,7 +7528,7 @@
         <v>43579</v>
       </c>
       <c r="D22" t="s" s="101">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E22" s="94">
         <v>1</v>
@@ -7415,7 +7540,7 @@
         <v>228</v>
       </c>
       <c r="H22" t="s" s="132">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -7425,7 +7550,7 @@
         <v>43579</v>
       </c>
       <c r="D23" t="s" s="102">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E23" s="103">
         <v>1</v>
@@ -7437,7 +7562,7 @@
         <v>228</v>
       </c>
       <c r="H23" t="s" s="132">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
@@ -7447,7 +7572,7 @@
         <v>43579</v>
       </c>
       <c r="D24" t="s" s="138">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E24" s="139">
         <v>40</v>
@@ -7459,7 +7584,7 @@
         <v>60</v>
       </c>
       <c r="H24" t="s" s="132">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
@@ -7467,7 +7592,7 @@
       <c r="B25" s="123"/>
       <c r="C25" s="142"/>
       <c r="D25" t="s" s="143">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E25" s="144"/>
       <c r="F25" s="144"/>
@@ -7475,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s" s="91">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -7503,7 +7628,7 @@
       <c r="B28" s="72"/>
       <c r="C28" s="123"/>
       <c r="D28" t="s" s="148">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E28" s="77"/>
       <c r="F28" s="72"/>
@@ -7515,7 +7640,7 @@
       <c r="B29" s="72"/>
       <c r="C29" s="123"/>
       <c r="D29" t="s" s="149">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E29" s="77"/>
       <c r="F29" s="72"/>
@@ -7527,7 +7652,7 @@
       <c r="B30" s="72"/>
       <c r="C30" s="123"/>
       <c r="D30" t="s" s="150">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E30" s="77"/>
       <c r="F30" s="72"/>
@@ -7539,7 +7664,7 @@
       <c r="B31" s="72"/>
       <c r="C31" s="123"/>
       <c r="D31" t="s" s="150">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E31" s="77"/>
       <c r="F31" s="72"/>
@@ -7551,7 +7676,7 @@
       <c r="B32" s="72"/>
       <c r="C32" s="123"/>
       <c r="D32" t="s" s="151">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E32" s="77"/>
       <c r="F32" s="72"/>
@@ -7612,7 +7737,7 @@
       <c r="A38" s="71"/>
       <c r="B38" s="72"/>
       <c r="C38" t="s" s="116">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D38" s="117"/>
       <c r="E38" s="117"/>
@@ -7624,7 +7749,7 @@
       <c r="A39" s="71"/>
       <c r="B39" s="72"/>
       <c r="C39" t="s" s="116">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D39" s="117"/>
       <c r="E39" s="117"/>
@@ -7636,7 +7761,7 @@
       <c r="A40" s="71"/>
       <c r="B40" s="72"/>
       <c r="C40" t="s" s="116">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D40" s="117"/>
       <c r="E40" s="117"/>
@@ -7704,13 +7829,13 @@
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" t="s" s="154">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s" s="154">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s" s="154">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -7723,7 +7848,7 @@
         <v>3239.21</v>
       </c>
       <c r="D5" t="s" s="154">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -7736,7 +7861,7 @@
         <v>6478.42</v>
       </c>
       <c r="D6" t="s" s="154">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -7749,7 +7874,7 @@
         <v>6478.42</v>
       </c>
       <c r="D7" t="s" s="154">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E7" s="11"/>
     </row>
